--- a/data/Workers.xlsx
+++ b/data/Workers.xlsx
@@ -466,7 +466,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Busy</t>
+          <t>no</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -486,7 +486,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Busy</t>
+          <t>no</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -506,7 +506,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Available</t>
+          <t>no</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
